--- a/testFile/gradelist.xlsx
+++ b/testFile/gradelist.xlsx
@@ -1,93 +1,397 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\程嘉朗\IdeaProjects\CS309-OOAD-ProjectHelper\testFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD76E5-AB39-49A3-90EE-4C191C33E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>submitterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>good</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>assignmentId</t>
   </si>
   <si>
     <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -95,24 +399,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -161,7 +751,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -196,7 +786,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -370,26 +960,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -414,13 +999,13 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -431,14 +1016,14 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
         <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testFile/gradelist.xlsx
+++ b/testFile/gradelist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>submitterId</t>
   </si>
@@ -28,10 +28,28 @@
     <t>assignmentId</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>submitterName</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>wang</t>
+  </si>
+  <si>
     <t>soso</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>zhang</t>
   </si>
 </sst>
 </file>
@@ -966,15 +984,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -987,8 +1005,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -999,13 +1023,19 @@
         <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1016,10 +1046,16 @@
         <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/gradelist.xlsx
+++ b/testFile/gradelist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>submitterId</t>
   </si>
@@ -23,33 +23,6 @@
   </si>
   <si>
     <t>comment</t>
-  </si>
-  <si>
-    <t>assignmentId</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>submitterName</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>wang</t>
-  </si>
-  <si>
-    <t>soso</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>zhang</t>
   </si>
 </sst>
 </file>
@@ -62,10 +35,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -215,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -533,55 +519,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,75 +579,82 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -984,15 +974,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1002,60 +992,33 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>12110000</v>
+      <c r="B2" s="1">
+        <v>12110001</v>
       </c>
       <c r="C2">
-        <v>110</v>
+        <v>90</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
+      <c r="D2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>12110003</v>
+      <c r="B3" s="2">
+        <v>12110008</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="D3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/gradelist.xlsx
+++ b/testFile/gradelist.xlsx
@@ -1001,10 +1001,10 @@
         <v>12110001</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1012,13 +1012,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>12110008</v>
+        <v>12110002</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/testFile/gradelist.xlsx
+++ b/testFile/gradelist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>submitterId</t>
   </si>
@@ -23,6 +23,30 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>瓦房受到广泛</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夫是德国</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -35,7 +59,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,6 +69,13 @@
     </font>
     <font>
       <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -519,139 +550,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1001,9 +1033,9 @@
         <v>12110001</v>
       </c>
       <c r="C2">
-        <v>80</v>
+        <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1011,14 +1043,14 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>12110002</v>
       </c>
       <c r="C3">
-        <v>85</v>
+        <v>120</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
